--- a/data/trans_dic/P37_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P37_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que duerme las horas de sueño recomendadas para su edad</t>
+          <t>Población que duerme las horas de sueño recomendadas para su edad (tasa de respuesta: 99,03%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>56,17%</t>
+          <t>55,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>58,09%</t>
+          <t>54,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>62,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>61,8%</t>
+          <t>62,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>60,57%</t>
+          <t>62,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58,72%</t>
+          <t>61,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>60,03%</t>
+          <t>63,62%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>59,27%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>58,49%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>56,88%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>54,7; 67,55</t>
+          <t>56,29; 72,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,99; 62,64</t>
+          <t>43,53; 63,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,66; 65,19</t>
+          <t>40,04; 62,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>54,42; 65,02</t>
+          <t>36,9; 62,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>55,96; 66,45</t>
+          <t>55,38; 69,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,25; 69,2</t>
+          <t>56,17; 69,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,31; 64,49</t>
+          <t>55,19; 68,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,16; 63,28</t>
+          <t>54,02; 68,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>54,52; 64,88</t>
+          <t>58,01; 68,62</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>52,61; 64,52</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>49,6; 63,48</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>47,2; 62,67</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>70,1%</t>
+          <t>64,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>72,99%</t>
+          <t>69,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>69,99%</t>
+          <t>64,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>66,76%</t>
+          <t>63,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>59,36%</t>
+          <t>67,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>60,32%</t>
+          <t>59,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>60,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>66,08%</t>
+          <t>49,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>65,16%</t>
+          <t>66,04%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>64,42%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>62,56%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>56,14%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,06; 76,44</t>
+          <t>54,95; 72,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,77; 78,57</t>
+          <t>59,93; 77,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,45; 76,18</t>
+          <t>56,0; 73,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,79; 73,3</t>
+          <t>53,98; 71,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,22; 65,47</t>
+          <t>59,12; 74,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>53,49; 66,4</t>
+          <t>51,42; 67,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>63,82; 73,33</t>
+          <t>52,31; 68,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,3; 70,23</t>
+          <t>38,77; 57,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>59,95; 69,34</t>
+          <t>59,42; 71,71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>58,56; 70,22</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>56,74; 68,09</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>49,21; 62,88</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>69,63%</t>
+          <t>57,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>54,53%</t>
+          <t>48,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72,39%</t>
+          <t>77,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73,46%</t>
+          <t>48,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>74,34%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>60,05%</t>
+          <t>67,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>71,44%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>63,92%</t>
+          <t>65,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>66,69%</t>
+          <t>66,31%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>57,86%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>67,54%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>56,78%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,78; 83,53</t>
+          <t>24,4; 84,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,22; 70,62</t>
+          <t>20,21; 72,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,28; 84,73</t>
+          <t>55,81; 92,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>61,33; 84,14</t>
+          <t>16,62; 74,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,12; 83,55</t>
+          <t>60,32; 87,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,21; 73,19</t>
+          <t>49,48; 82,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>57,66; 80,43</t>
+          <t>39,1; 74,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,2; 72,88</t>
+          <t>48,35; 80,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>55,83; 75,04</t>
+          <t>43,2; 80,55</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>37,05; 71,22</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>54,07; 81,38</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>35,44; 71,09</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>65,76%</t>
+          <t>63,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>62,89%</t>
+          <t>60,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>56,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>61,67%</t>
+          <t>65,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,04%</t>
+          <t>62,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>61,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>57,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>62,82%</t>
+          <t>64,88%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>61,22%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>61,06%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>56,58%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,67; 70,38</t>
+          <t>56,27; 69,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,5; 67,45</t>
+          <t>53,48; 66,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,47; 69,41</t>
+          <t>51,98; 67,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,26; 67,69</t>
+          <t>46,12; 62,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,79; 65,51</t>
+          <t>60,56; 70,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,13; 65,78</t>
+          <t>57,18; 66,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,77; 67,76</t>
+          <t>56,23; 66,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,18; 65,03</t>
+          <t>50,56; 62,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>59,61; 65,94</t>
+          <t>60,68; 68,69</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>56,8; 65,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>55,92; 64,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51,16; 61,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que duerme las horas de sueño recomendadas para su edad (tasa de respuesta: 99,03%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>272351</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>200865</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>203522</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>268912</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>317179</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>263307</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>251199</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>340688</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>589529</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>464171</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>454721</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>609600</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>236499; 306640</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>158523; 229520</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>150087; 235802</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>190382; 319916</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>280521; 350150</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>235381; 293063</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>222169; 277148</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>300242; 379470</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>537572; 635861</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>412018; 505362</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>385593; 493490</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>505882; 671613</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>224685</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>215609</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>203152</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>260905</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>275174</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>194745</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>200177</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>211409</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>499859</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>410354</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>403329</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>472314</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>191748; 254520</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>186636; 241159</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>175948; 229562</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>222578; 295060</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>241180; 304610</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>167399; 218974</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>172890; 225106</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>166306; 248087</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>449766; 542789</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>373016; 447295</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>365850; 438974</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>413980; 528982</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>58794</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>38812</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>66024</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>57751</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>71588</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>48678</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41014</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>73272</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>130382</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>87490</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>107038</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>131024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24830; 85481</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16085; 57431</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47770; 78771</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19849; 88455</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>57211; 83104</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35433; 59011</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28501; 54176</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>53842; 89142</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>84931; 158377</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>56019; 107702</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>85695; 128978</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>81777; 164040</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>427.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>555830</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>455286</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>472698</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>587569</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>663940</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>506730</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>492390</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>625370</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1219770</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>962015</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>965089</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1212938</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>490010; 606911</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>403841; 503206</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>402645; 520063</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>483141; 659887</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>611273; 710299</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>466735; 545034</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>453169; 532924</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>554146; 683850</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1140894; 1291516</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>892605; 1024904</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>883831; 1025641</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1096662; 1309869</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
